--- a/기획서(일정).xlsx
+++ b/기획서(일정).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,14 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HTML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>php, db</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +120,10 @@
   </si>
   <si>
     <t>끝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML + CSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -643,6 +639,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,6 +727,78 @@
     <xf numFmtId="58" fontId="6" fillId="5" borderId="7" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,52 +814,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,46 +841,22 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,7 +1293,7 @@
   <dimension ref="A2:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="H12" sqref="H12:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1282,47 +1305,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="20" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="23"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="27"/>
       <c r="AD2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="10">
         <v>43192</v>
       </c>
@@ -1404,19 +1427,19 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1442,9 +1465,9 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1474,18 +1497,18 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="35"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1510,9 +1533,9 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1542,13 +1565,13 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1578,9 +1601,9 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1610,9 +1633,9 @@
       <c r="AD9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1642,9 +1665,9 @@
       <c r="AD10" s="1"/>
     </row>
     <row r="11" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1674,29 +1697,29 @@
       <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="H12" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1712,25 +1735,23 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1746,9 +1767,9 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1760,16 +1781,16 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="50"/>
+      <c r="O14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -1780,9 +1801,9 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1801,14 +1822,14 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="53"/>
+      <c r="V15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="23"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="1"/>
@@ -1817,10 +1838,10 @@
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1853,10 +1874,10 @@
       <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1881,8 +1902,8 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="54" t="s">
-        <v>25</v>
+      <c r="AB17" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="AC17" s="4"/>
       <c r="AD17" s="1"/>
@@ -1891,10 +1912,10 @@
       <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1920,8 +1941,8 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="55" t="s">
-        <v>26</v>
+      <c r="AC18" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="AD18" s="1"/>
     </row>
@@ -2331,18 +2352,7 @@
       <c r="AE32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="O14:V14"/>
-    <mergeCell ref="V15:AA15"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="D2:AC2"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="E4:G4"/>
+  <mergeCells count="17">
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -2350,6 +2360,16 @@
     <mergeCell ref="B8:C11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:C15"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="O14:V14"/>
+    <mergeCell ref="V15:AA15"/>
+    <mergeCell ref="D2:AC2"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H12:Q13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
